--- a/Scrubbing After R.xlsx
+++ b/Scrubbing After R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dynamicenergysolutionsllc-my.sharepoint.com/personal/ally_smith_dynamicenergy_com/Documents/Documents/GitHub/ScrubAO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{61A46B19-D3A7-441D-9028-9B441109C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69ABDC7C-544A-40A2-B67B-84DFB612A3B2}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{61A46B19-D3A7-441D-9028-9B441109C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7A6C78-744B-4B2B-AD6F-DDC8C0B1953B}"/>
   <bookViews>
-    <workbookView xWindow="-28875" yWindow="-2880" windowWidth="29055" windowHeight="11325" activeTab="1" xr2:uid="{62442E88-F1FF-4ACD-B502-ABFCF4424C6C}"/>
+    <workbookView xWindow="-28920" yWindow="-5595" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62442E88-F1FF-4ACD-B502-ABFCF4424C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide Template_old" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>First Name</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>fill in this info</t>
+  </si>
+  <si>
+    <t>Substation</t>
+  </si>
+  <si>
+    <t>Distance to Substation</t>
   </si>
 </sst>
 </file>
@@ -408,9 +414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>559087</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177931</xdr:rowOff>
+      <xdr:colOff>562262</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -452,9 +458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>565389</xdr:colOff>
+      <xdr:colOff>562214</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63624</xdr:rowOff>
+      <xdr:rowOff>66799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -487,13 +493,83 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE0EF19-FF13-F89F-2405-601B2AA2546B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8931275" y="2105025"/>
+          <a:ext cx="1466850" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -531,7 +607,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -637,7 +713,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -779,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -952,15 +1028,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00541C81-08F7-4AB0-AACF-16F4251EE29C}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -1058,8 +1134,14 @@
       <c r="AG1" t="s">
         <v>42</v>
       </c>
+      <c r="AH1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>

--- a/Scrubbing After R.xlsx
+++ b/Scrubbing After R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dynamicenergysolutionsllc-my.sharepoint.com/personal/ally_smith_dynamicenergy_com/Documents/Documents/GitHub/ScrubAO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{61A46B19-D3A7-441D-9028-9B441109C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7A6C78-744B-4B2B-AD6F-DDC8C0B1953B}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{61A46B19-D3A7-441D-9028-9B441109C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B156F0-0B3E-4630-9AD3-F2CF57550F2E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5595" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62442E88-F1FF-4ACD-B502-ABFCF4424C6C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>First Name</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Distance to Substation</t>
+  </si>
+  <si>
+    <t>fix these names, AO exports refer to them strangely</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00541C81-08F7-4AB0-AACF-16F4251EE29C}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,6 +1157,9 @@
       <c r="Y3" t="s">
         <v>46</v>
       </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrubbing After R.xlsx
+++ b/Scrubbing After R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dynamicenergysolutionsllc-my.sharepoint.com/personal/ally_smith_dynamicenergy_com/Documents/Documents/GitHub/ScrubAO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{61A46B19-D3A7-441D-9028-9B441109C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B156F0-0B3E-4630-9AD3-F2CF57550F2E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{61A46B19-D3A7-441D-9028-9B441109C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21407419-38E9-4A0D-8B9E-0C5DA9692A8E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5595" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62442E88-F1FF-4ACD-B502-ABFCF4424C6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{62442E88-F1FF-4ACD-B502-ABFCF4424C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide Template_old" sheetId="1" r:id="rId1"/>
@@ -562,6 +562,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552635</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A78204-3645-FE5F-75C3-1B14F9EFAF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3683000"/>
+          <a:ext cx="3600635" cy="3340272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1033,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00541C81-08F7-4AB0-AACF-16F4251EE29C}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
